--- a/pred_ohlcv/54_21/2020-01-13 ZEC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 ZEC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-383.4957046100002</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-384.3339046100002</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-721.1289046100001</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-721.1289046100001</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-805.9384046100001</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-810.1994046100001</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-806.4761046100001</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-819.0203046100002</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-819.3759046100001</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-788.1987046100002</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-694.0499498100004</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-817.1925498100004</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-785.2393498100004</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-795.2393498100004</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-805.2393498100004</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-806.2193498100004</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-807.5516498100004</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-817.5516498100004</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-924.7442498100005</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-924.7442498100005</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-914.6599498100005</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-870.0693498100005</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-917.4892498100006</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-917.4892498100006</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-917.4892498100006</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-917.4692498100006</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-913.7692498100006</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-13 ZEC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 ZEC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-383.4957046100002</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-384.3339046100002</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-739.0304046100001</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-729.3103046100001</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-721.1289046100001</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-806.4761046100001</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-694.0499498100004</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-817.1925498100004</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-785.2393498100004</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-795.2393498100004</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-805.2393498100004</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-806.2193498100004</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-807.5516498100004</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-817.5516498100004</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-850.6356498100005</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-917.4892498100006</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-917.4892498100006</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-917.4892498100006</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-917.4692498100006</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-913.7692498100006</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
